--- a/Experiments/Measurements/Two Banners Side by Side/Straight Path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/Straight Path/Transformed_Coordinates.xlsx
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>173.8526141382611</v>
+        <v>173.8526141382609</v>
       </c>
       <c r="H53" t="n">
-        <v>76.59503357222877</v>
+        <v>76.59503357222866</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>205.5925497199164</v>
+        <v>205.5925497199168</v>
       </c>
       <c r="H54" t="n">
-        <v>76.95918854727154</v>
+        <v>76.95918854727176</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>180.230038630209</v>
+        <v>180.2300386302092</v>
       </c>
       <c r="H55" t="n">
-        <v>78.03083904518884</v>
+        <v>78.03083904518896</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>236.9669588772082</v>
+        <v>236.966958877208</v>
       </c>
       <c r="H59" t="n">
-        <v>77.80496639582357</v>
+        <v>77.80496639582346</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>195.2815004376016</v>
+        <v>195.281500437602</v>
       </c>
       <c r="H60" t="n">
-        <v>77.03439848564419</v>
+        <v>77.03439848564443</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>251.1342293837203</v>
+        <v>251.1342293837205</v>
       </c>
       <c r="H61" t="n">
-        <v>78.47035837718704</v>
+        <v>78.47035837718715</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>140.2038531799512</v>
+        <v>140.2038531799514</v>
       </c>
       <c r="H62" t="n">
-        <v>79.12159218970515</v>
+        <v>79.12159218970527</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>115.8218850608581</v>
+        <v>115.8218850608579</v>
       </c>
       <c r="H65" t="n">
-        <v>77.5322736832732</v>
+        <v>77.53227368327308</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>195.9083191028513</v>
+        <v>195.9083191028516</v>
       </c>
       <c r="H66" t="n">
-        <v>77.80222281821226</v>
+        <v>77.8022228182125</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>186.047873952542</v>
+        <v>186.0478739525422</v>
       </c>
       <c r="H67" t="n">
-        <v>79.0321795608112</v>
+        <v>79.03217956081131</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>108.6796351445904</v>
+        <v>108.6796351445906</v>
       </c>
       <c r="H68" t="n">
-        <v>78.56206458544008</v>
+        <v>78.5620645854402</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>154.0343663950104</v>
+        <v>154.0343663950102</v>
       </c>
       <c r="H71" t="n">
-        <v>77.17770946824739</v>
+        <v>77.17770946824726</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>270.7107180010117</v>
+        <v>270.7107180010121</v>
       </c>
       <c r="H72" t="n">
-        <v>77.76025672444177</v>
+        <v>77.76025672444202</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>251.8601582392688</v>
+        <v>251.860158239269</v>
       </c>
       <c r="H73" t="n">
-        <v>79.13625960730994</v>
+        <v>79.13625960731007</v>
       </c>
     </row>
     <row r="74">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>87.73435018202873</v>
+        <v>87.73435018202854</v>
       </c>
       <c r="H75" t="n">
-        <v>78.49246051582509</v>
+        <v>78.49246051582497</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>237.5837370173925</v>
+        <v>237.5837370173929</v>
       </c>
       <c r="H76" t="n">
-        <v>76.85780119481761</v>
+        <v>76.85780119481784</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>130.5071589275564</v>
+        <v>130.5071589275562</v>
       </c>
       <c r="H78" t="n">
-        <v>76.55095957037</v>
+        <v>76.55095957036988</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>199.739150104077</v>
+        <v>199.7391501040767</v>
       </c>
       <c r="H79" t="n">
-        <v>77.11465770238067</v>
+        <v>77.11465770238048</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>237.7136030998151</v>
+        <v>237.7136030998153</v>
       </c>
       <c r="H81" t="n">
-        <v>78.05017395645999</v>
+        <v>78.0501739564601</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>112.5512012476554</v>
+        <v>112.5512012476552</v>
       </c>
       <c r="H82" t="n">
-        <v>77.55814317619297</v>
+        <v>77.55814317619286</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>141.9144304873703</v>
+        <v>141.9144304873701</v>
       </c>
       <c r="H83" t="n">
-        <v>78.44001297415214</v>
+        <v>78.44001297415201</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>174.3536914395329</v>
+        <v>174.3536914395331</v>
       </c>
       <c r="H84" t="n">
-        <v>77.64705035989131</v>
+        <v>77.64705035989142</v>
       </c>
     </row>
     <row r="85">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>124.6910742432371</v>
+        <v>124.6910742432375</v>
       </c>
       <c r="H85" t="n">
-        <v>77.50815694450482</v>
+        <v>77.50815694450505</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>161.4351204015407</v>
+        <v>161.4351204015405</v>
       </c>
       <c r="H87" t="n">
-        <v>76.80278093727992</v>
+        <v>76.80278093727981</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>222.7386169970289</v>
+        <v>222.7386169970287</v>
       </c>
       <c r="H88" t="n">
-        <v>76.39388598379534</v>
+        <v>76.39388598379523</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>229.781635947547</v>
+        <v>229.7816359475472</v>
       </c>
       <c r="H89" t="n">
-        <v>77.67937372113266</v>
+        <v>77.67937372113278</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>137.3039908744681</v>
+        <v>137.3039908744679</v>
       </c>
       <c r="H90" t="n">
-        <v>77.59629554221394</v>
+        <v>77.59629554221381</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>188.6222488392047</v>
+        <v>188.622248839205</v>
       </c>
       <c r="H91" t="n">
-        <v>76.24875947431892</v>
+        <v>76.24875947431914</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>199.7986502876905</v>
+        <v>199.7986502876909</v>
       </c>
       <c r="H92" t="n">
-        <v>77.86372162084118</v>
+        <v>77.86372162084142</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>147.9989050477283</v>
+        <v>147.9989050477285</v>
       </c>
       <c r="H93" t="n">
-        <v>77.56448301263697</v>
+        <v>77.56448301263708</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>114.1788586294738</v>
+        <v>114.1788586294735</v>
       </c>
       <c r="H94" t="n">
-        <v>78.10408608573458</v>
+        <v>78.10408608573439</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>139.9839746717678</v>
+        <v>139.9839746717681</v>
       </c>
       <c r="H95" t="n">
-        <v>78.03097443722379</v>
+        <v>78.03097443722403</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>194.7100369474102</v>
+        <v>194.71003694741</v>
       </c>
       <c r="H97" t="n">
-        <v>78.75977938170638</v>
+        <v>78.75977938170625</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>141.160371437589</v>
+        <v>141.1603714375888</v>
       </c>
       <c r="H98" t="n">
-        <v>77.35360515237922</v>
+        <v>77.3536051523791</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>124.2090472675656</v>
+        <v>124.209047267566</v>
       </c>
       <c r="H99" t="n">
-        <v>77.16440495773934</v>
+        <v>77.16440495773958</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>121.2818184103005</v>
+        <v>121.2818184103007</v>
       </c>
       <c r="H101" t="n">
-        <v>77.31144489413434</v>
+        <v>77.31144489413445</v>
       </c>
     </row>
   </sheetData>
